--- a/img/gBufferOpt.xlsx
+++ b/img/gBufferOpt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Scissor</t>
   </si>
@@ -48,13 +48,22 @@
     <t>MB(moving)</t>
   </si>
   <si>
-    <t>NO_OPT</t>
-  </si>
-  <si>
-    <t>Combine geonor &amp; normap</t>
-  </si>
-  <si>
-    <t>nor.xy to pos.a, col.a</t>
+    <t xml:space="preserve"> (4 buffers) : No optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3 buffers): + Combine geonor &amp; normap (3 buffers)</t>
+  </si>
+  <si>
+    <t>(2 buffers): + nor.xy to pos.a, col.a</t>
+  </si>
+  <si>
+    <t>No post effects</t>
+  </si>
+  <si>
+    <t>Motion Blur(static)</t>
+  </si>
+  <si>
+    <t>Motion Blur(moving)</t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -233,6 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -264,6 +274,453 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>G-Buffer Optimization (no post effects)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>With Scissor Test</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$3,Sheet1!$B$11,Sheet1!$B$19)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v> (4 buffers) : No optimization</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> (3 buffers): + Combine geonor &amp; normap (3 buffers)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(2 buffers): + nor.xy to pos.a, col.a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$5,Sheet1!$C$13,Sheet1!$C$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Without Scissor Test</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$3,Sheet1!$B$11,Sheet1!$B$19)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v> (4 buffers) : No optimization</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> (3 buffers): + Combine geonor &amp; normap (3 buffers)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(2 buffers): + nor.xy to pos.a, col.a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$5,Sheet1!$E$13,Sheet1!$E$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2140734936"/>
+        <c:axId val="-2140737928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2140734936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140737928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140737928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140734936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scissor Test Optimization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scissor Test</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2134991704"/>
+        <c:axId val="2135023080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2134991704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135023080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2135023080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134991704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,7 +1048,7 @@
   <dimension ref="B3:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -629,7 +1086,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>29</v>
@@ -680,7 +1137,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>28</v>
@@ -697,7 +1154,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5">
         <v>28</v>
@@ -713,7 +1170,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -822,7 +1279,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -917,6 +1374,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
